--- a/tests/test_files/output.xlsx
+++ b/tests/test_files/output.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="800" yWindow="760" windowWidth="29440" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J411"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -498,12 +498,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>简体中文(源)</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>印尼语(译)</t>
+          <t>Chinesisch (vereinfacht)</t>
         </is>
       </c>
     </row>
@@ -530,12 +525,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>上传附件过大</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Lampiran terlalu besar</t>
+          <t>Anhang zu groß hochgeladen</t>
         </is>
       </c>
     </row>
@@ -562,12 +552,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>主题编码</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Kode subjek</t>
+          <t>Themen-Code</t>
         </is>
       </c>
     </row>
@@ -594,12 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>绩效对象</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Objek kinerja</t>
+          <t>Leistungsobjekt</t>
         </is>
       </c>
     </row>
@@ -626,12 +606,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>此配送员有待处理的配送单，请先转移</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Terdapat pesanan pengiriman yang perlu ditangani oleh kurir ini, harap dipindahkan terlebih dahulu.</t>
+          <t>Dieser Zusteller hat ausstehende Lieferaufträge. Bitte verschieben Sie diese zuerst.</t>
         </is>
       </c>
     </row>
@@ -658,12 +633,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Flex布局</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Tata letak flex</t>
+          <t>Flex-Layout</t>
         </is>
       </c>
     </row>
@@ -690,12 +660,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>图标</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Ikon</t>
+          <t>Symbol</t>
         </is>
       </c>
     </row>
@@ -722,12 +687,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>搜索</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Pencarian</t>
+          <t>Suche</t>
         </is>
       </c>
     </row>
@@ -754,12 +714,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>查询方案</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Rencana pencarian</t>
+          <t>Abfrageplan</t>
         </is>
       </c>
     </row>
@@ -786,12 +741,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>流式布局</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Tata letak aliran</t>
+          <t>Fließendes Layout</t>
         </is>
       </c>
     </row>
@@ -818,7 +768,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Projektorganisations-ID</t>
         </is>
       </c>
     </row>
@@ -845,7 +795,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Verwenden Sie für den Hauptfarbwert des Markenzeichens eine 16-Bit-Hexadezimalzahl!</t>
         </is>
       </c>
     </row>
@@ -872,7 +822,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>${label} ist ein Pflichtfeld!</t>
         </is>
       </c>
     </row>
@@ -914,7 +864,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Die Dokumentenkonvertierungsregel {0} verwendet das Merkmal {1}.</t>
         </is>
       </c>
     </row>
@@ -956,7 +906,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Der Geschäftsprozess {0} verwendet das Merkmal {1}.</t>
         </is>
       </c>
     </row>
@@ -998,7 +948,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Import von Materialstammdaten</t>
         </is>
       </c>
     </row>
@@ -1040,7 +990,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Geben Sie den vorhandenen Kostenstellen-Code im System ein. Dies ist erforderlich, wenn der Materialtyp ein Kostenmaterial ist!</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1032,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Wenn es gleiche Codes gibt, aktualisiert das Hauptmitglied die entsprechenden Mitgliedseigenschaften im System. Das Verhalten des Hauptmitglieds wird als Y betrachtet. Y: Ja, N: Nein;</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1074,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Datenmonat</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1116,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Überprüfung des fehlgeschlagenen Versuchs des Benutzers, die Geheimhaltungsstufe zu aktivieren. Bitte überprüfen Sie.</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1158,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Fehler beim Verbinden der Geheimhaltungsstufenfilterbedingungen</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1200,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Geheimhaltungsstufenfrist oder -stufe darf nicht leer sein</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1242,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Während der Laufzeit werden Vorlagen anhand von Szenen-Tags, Benutzern, Rollen, Bedingungskonfigurationen, Organisationen und Transaktionstypen gefiltert und abgeglichen. Zuerst werden sie nach Szenen-Tags, Benutzern, Rollen und Bedingungskonfigurationen gefiltert (alle müssen erfüllt sein). Wenn das Ergebnis nicht leer ist, wird weiterhin nach Organisationen und Transaktionstypen gefiltert. Wenn eine Methode nicht konfiguriert ist, wird diese Filtermethode ignoriert. Wenn es mehrere Ergebnisse gibt, wird die Vorlage mit der höchsten Priorität verwendet. Wenn das Ergebnis leer ist, wird automatisch eine Systemvorlage gesucht (die den Szenen-Tags entspricht, wenn sie gedruckt werden). Wenn keine passende Vorlage gefunden wird, wird das Dokument nicht gedruckt.</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1284,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Nach Aktivierung der Bedingungen wird das Umschalten zwischen mehreren Vorlagen während der Laufzeit nicht mehr unterstützt. Das Dokument wird entsprechend der Bedingungen genau der Vorlage zugeordnet. Wenn keine Bedingungen aktiviert sind, wird das Umschalten zwischen mehreren Vorlagen während der Laufzeit wieder ermöglicht.</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1326,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Bitte legen Sie eine Standardvorlage fest</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1368,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Die Bedingungskonfiguration unterstützt nur die Verwendung von Vorlagen, die mit dem Geschäftsobjekt erstellt wurden</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1410,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Die aktuelle Aktivität ist mit einer Service-assozierten Workflow-Aktion konfiguriert. Bitte gehen Sie zur Detailansicht des Dokuments, um die Genehmigung durchzuführen</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1452,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Die aktuelle Aktivität ({0}) ist mit einer Service-assozierten Workflow-Aktion konfiguriert. Bitte gehen Sie zur Detailansicht des Dokuments, um die Genehmigung durchzuführen</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1494,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Yonyou iUAP Plattform</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1536,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>Yonyou YonHelp</t>
         </is>
       </c>
     </row>
